--- a/GAR/BROObject - GAR IMBRO data exemplification file (v1.0.1).xlsx
+++ b/GAR/BROObject - GAR IMBRO data exemplification file (v1.0.1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/GitHub/BRO-Spreadsheet-en-tabelformat/GAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{77787D77-F3AD-432F-B0D6-3FDB7726A082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{822F9220-CC1B-4096-B64E-5320BC133BC8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{77787D77-F3AD-432F-B0D6-3FDB7726A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47AE2CC7-764E-4E3E-925E-D7499B8E7138}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26814B37-6F38-4D5A-99CF-A0A5CD7480CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2540">
   <si>
     <t>Format Name</t>
   </si>
@@ -7775,6 +7775,9 @@
   </si>
   <si>
     <t>Getal</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -8216,7 +8219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8252,17 +8255,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8280,7 +8280,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8289,10 +8289,10 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8301,7 +8301,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8328,19 +8328,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8375,9 +8374,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8385,11 +8381,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8404,7 +8399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8416,23 +8411,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8449,13 +8435,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8476,26 +8462,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -8540,7 +8523,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
@@ -8597,7 +8580,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
@@ -8605,7 +8588,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3314700</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8952,21 +8935,23 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8982,12 +8967,12 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102">
-        <v>1</v>
+      <c r="B2" s="94" t="s">
+        <v>2539</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -8998,11 +8983,11 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10"/>
@@ -9014,7 +8999,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +9015,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -9046,7 +9031,7 @@
       <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -9058,7 +9043,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -9074,7 +9059,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -9090,52 +9075,52 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
         <v>2532</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
         <v>2536</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>2535</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-    </row>
-    <row r="17" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>2508</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A37" s="17" t="s">
+    <row r="36" spans="1:1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>2506</v>
       </c>
     </row>
@@ -9155,7 +9140,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
@@ -9163,7 +9148,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3314700</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>91440</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9186,61 +9171,59 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="60" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -9249,22 +9232,22 @@
       <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>2509</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="62">
         <v>1</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="66" t="s">
         <v>2520</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -9273,48 +9256,48 @@
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>52754834</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="74" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:8" s="70" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="86" t="s">
         <v>2499</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="63">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -9323,74 +9306,74 @@
       <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>2498</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <v>1</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="74" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:8" s="70" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="86">
         <v>3</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="63">
         <v>1</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="84" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:8" s="77" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="64">
         <v>1</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -9399,22 +9382,22 @@
       <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="88">
         <v>43396.708009259259</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="62">
         <v>1</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="66" t="s">
         <v>2521</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -9423,71 +9406,71 @@
       <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>52754834</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="62">
         <v>1</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="74" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:8" s="70" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="63">
         <v>1</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="69" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="71" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:8" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="65">
         <v>1</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="42"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9528,345 +9511,343 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="98" style="45" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="98" style="43" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <v>1</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="66" t="s">
         <v>2523</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="86" t="s">
+    <row r="6" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="62">
         <v>1</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="86" t="s">
+    <row r="7" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>2497</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="62">
         <v>1</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="66" t="s">
         <v>2524</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="86" t="s">
+    <row r="8" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="62">
         <v>1</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="86" t="s">
+    <row r="9" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="62">
         <v>1</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="66" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="86" t="s">
+    <row r="10" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>2497</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="62">
         <v>1</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="66" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="86" t="s">
+    <row r="11" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="62">
         <v>1</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="66" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="86" t="s">
+    <row r="12" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>2500</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="62">
         <v>1</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="66" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="71" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="89" t="s">
+    <row r="13" spans="1:8" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="78" t="s">
         <v>2497</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="65">
         <v>1</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="68" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -9905,61 +9886,59 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -9968,22 +9947,22 @@
       <c r="E2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="89">
         <v>1496</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="62">
         <v>1</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="66" t="s">
         <v>2510</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>2538</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -9992,109 +9971,109 @@
       <c r="E3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="90">
         <v>5123</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="66" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="1:8" s="67" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="65">
         <v>1</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="68" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+    <row r="5" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="32"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="32"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="32"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="41"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="32"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="41"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="32"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="32"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="32"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10120,91 +10099,89 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="63" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="60" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="74" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:8" s="70" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="91" t="s">
         <v>2501</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="63">
         <v>1</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="69" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -10213,22 +10190,22 @@
       <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="92">
         <v>43398</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="66" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" s="67" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -10237,95 +10214,95 @@
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="62">
         <v>1</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="66" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="1:8" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="65">
         <v>1</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="68" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
+    <row r="6" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="32"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="32"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="32"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="32"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="32"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10360,224 +10337,222 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="134.88671875" style="64" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="134.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="89">
         <v>1522</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="62">
         <v>1</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="66" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>2538</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>2502</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="66" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="1:8" s="67" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>2538</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>2</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="66" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="89" t="s">
+    <row r="6" spans="1:8" s="67" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="65">
         <v>1</v>
       </c>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="10" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="64"/>
+    <row r="7" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="32"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="41"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="32"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="41"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="32"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="32"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="32"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10612,236 +10587,234 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="43" customWidth="1"/>
-    <col min="8" max="8" width="91.5546875" style="43" customWidth="1"/>
-    <col min="9" max="9" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="43"/>
-    <col min="16" max="16" width="13.6640625" style="43" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="43"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="91.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="89">
         <v>1496</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="66" t="s">
         <v>2517</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:8" s="67" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>2253</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="66" t="s">
         <v>2516</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" s="67" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="62">
         <v>1</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="66" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>688</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <v>1</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="86" t="s">
+    <row r="6" spans="1:8" s="67" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>2513</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="62">
         <v>1</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="66" t="s">
         <v>2515</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="71" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="89" t="s">
+    <row r="7" spans="1:8" s="67" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="78" t="s">
         <v>2514</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="65">
         <v>1</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="68" t="s">
         <v>2519</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+    <row r="8" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="41"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="32"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="41"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="32"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="32"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="32"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10889,121 +10862,121 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="75" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B3" t="s">
@@ -11042,15 +11015,15 @@
       <c r="M3" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="37">
         <v>155998</v>
       </c>
       <c r="O3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B4" t="s">
@@ -11096,8 +11069,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>177</v>
       </c>
@@ -11138,8 +11111,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="C6" t="s">
         <v>189</v>
       </c>
@@ -11174,8 +11147,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
       <c r="D7" t="s">
         <v>199</v>
       </c>
@@ -11194,7 +11167,7 @@
       <c r="K7" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="37">
         <v>1</v>
       </c>
       <c r="M7" t="s">
@@ -11207,8 +11180,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="D8" t="s">
         <v>207</v>
       </c>
@@ -11237,8 +11210,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
       <c r="D9" t="s">
         <v>215</v>
       </c>
@@ -11267,8 +11240,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="D10" t="s">
         <v>223</v>
       </c>
@@ -11297,8 +11270,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="D11" t="s">
         <v>231</v>
       </c>
@@ -11327,8 +11300,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="D12" t="s">
         <v>239</v>
       </c>
@@ -11351,8 +11324,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="D13" t="s">
         <v>245</v>
       </c>
@@ -11375,8 +11348,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="D14" t="s">
         <v>251</v>
       </c>
@@ -11399,8 +11372,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="D15" t="s">
         <v>257</v>
       </c>
@@ -11423,8 +11396,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="D16" t="s">
         <v>263</v>
       </c>
@@ -11447,8 +11420,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
       <c r="G17" t="s">
         <v>269</v>
       </c>
@@ -11465,8 +11438,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
       <c r="G18" t="s">
         <v>274</v>
       </c>
@@ -11483,8 +11456,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="G19" t="s">
         <v>279</v>
       </c>
@@ -11501,8 +11474,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="G20" t="s">
         <v>284</v>
       </c>
@@ -11519,8 +11492,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
       <c r="G21" t="s">
         <v>289</v>
       </c>
@@ -11537,8 +11510,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="G22" t="s">
         <v>294</v>
       </c>
@@ -11555,8 +11528,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
       <c r="G23" t="s">
         <v>299</v>
       </c>
@@ -11573,8 +11546,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="G24" t="s">
         <v>304</v>
       </c>
@@ -11591,8 +11564,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
       <c r="G25" t="s">
         <v>309</v>
       </c>
@@ -11609,8 +11582,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
       <c r="G26" t="s">
         <v>314</v>
       </c>
@@ -11627,8 +11600,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
       <c r="G27" t="s">
         <v>319</v>
       </c>
@@ -11645,8 +11618,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
       <c r="G28" t="s">
         <v>324</v>
       </c>
@@ -11663,8 +11636,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
       <c r="G29" t="s">
         <v>329</v>
       </c>
@@ -11681,8 +11654,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
       <c r="G30" t="s">
         <v>334</v>
       </c>
@@ -11699,8 +11672,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
       <c r="G31" t="s">
         <v>339</v>
       </c>
@@ -11717,8 +11690,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
       <c r="G32" t="s">
         <v>344</v>
       </c>
@@ -11735,8 +11708,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
       <c r="G33" t="s">
         <v>349</v>
       </c>
@@ -11753,8 +11726,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
       <c r="G34" t="s">
         <v>354</v>
       </c>
@@ -11771,8 +11744,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
       <c r="G35" t="s">
         <v>359</v>
       </c>
@@ -11789,8 +11762,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
       <c r="G36" t="s">
         <v>364</v>
       </c>
@@ -11807,8 +11780,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
       <c r="G37" t="s">
         <v>369</v>
       </c>
@@ -11825,8 +11798,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
       <c r="G38" t="s">
         <v>374</v>
       </c>
@@ -11843,8 +11816,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
       <c r="G39" t="s">
         <v>379</v>
       </c>
@@ -11861,8 +11834,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
       <c r="G40" t="s">
         <v>384</v>
       </c>
@@ -11879,8 +11852,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
       <c r="G41" t="s">
         <v>389</v>
       </c>
@@ -11897,8 +11870,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
       <c r="G42" t="s">
         <v>394</v>
       </c>
@@ -11915,8 +11888,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
       <c r="G43" t="s">
         <v>399</v>
       </c>
@@ -11933,8 +11906,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
       <c r="G44" t="s">
         <v>404</v>
       </c>
@@ -11951,8 +11924,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="G45" t="s">
         <v>409</v>
       </c>
@@ -11969,8 +11942,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
       <c r="G46" t="s">
         <v>414</v>
       </c>
@@ -11987,8 +11960,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
       <c r="G47" t="s">
         <v>419</v>
       </c>
@@ -12005,8 +11978,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
       <c r="G48" t="s">
         <v>424</v>
       </c>
@@ -12023,8 +11996,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
       <c r="G49" t="s">
         <v>429</v>
       </c>
@@ -12041,8 +12014,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
       <c r="G50" t="s">
         <v>434</v>
       </c>
@@ -12059,8 +12032,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
       <c r="G51" t="s">
         <v>439</v>
       </c>
@@ -12077,8 +12050,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
       <c r="G52" t="s">
         <v>444</v>
       </c>
@@ -12095,8 +12068,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
       <c r="G53" t="s">
         <v>449</v>
       </c>
@@ -12113,8 +12086,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
       <c r="G54" t="s">
         <v>454</v>
       </c>
@@ -12131,8 +12104,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
       <c r="G55" t="s">
         <v>459</v>
       </c>
@@ -12149,8 +12122,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="G56" t="s">
         <v>464</v>
       </c>
@@ -12167,8 +12140,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
       <c r="G57" t="s">
         <v>469</v>
       </c>
@@ -12185,8 +12158,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
       <c r="G58" t="s">
         <v>474</v>
       </c>
@@ -12203,8 +12176,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
       <c r="G59" t="s">
         <v>479</v>
       </c>
@@ -12221,8 +12194,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
       <c r="G60" t="s">
         <v>483</v>
       </c>
@@ -12239,8 +12212,8 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
       <c r="G61" t="s">
         <v>488</v>
       </c>
@@ -12257,8 +12230,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
       <c r="G62" t="s">
         <v>493</v>
       </c>
@@ -12275,8 +12248,8 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
       <c r="G63" t="s">
         <v>498</v>
       </c>
@@ -12293,8 +12266,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
       <c r="G64" t="s">
         <v>503</v>
       </c>
@@ -12311,8 +12284,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
       <c r="G65" t="s">
         <v>508</v>
       </c>
@@ -12329,8 +12302,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
       <c r="G66" t="s">
         <v>513</v>
       </c>
@@ -12347,8 +12320,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
       <c r="G67" t="s">
         <v>518</v>
       </c>
@@ -12365,8 +12338,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
       <c r="G68" t="s">
         <v>523</v>
       </c>
@@ -12383,8 +12356,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
       <c r="G69" t="s">
         <v>528</v>
       </c>
@@ -12401,8 +12374,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
       <c r="G70" t="s">
         <v>533</v>
       </c>
@@ -12419,8 +12392,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
       <c r="G71" t="s">
         <v>538</v>
       </c>
@@ -12437,8 +12410,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
       <c r="G72" t="s">
         <v>543</v>
       </c>
@@ -12455,8 +12428,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
       <c r="G73" t="s">
         <v>548</v>
       </c>
@@ -12473,8 +12446,8 @@
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
       <c r="G74" t="s">
         <v>553</v>
       </c>
@@ -12491,8 +12464,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
       <c r="G75" t="s">
         <v>558</v>
       </c>
@@ -12509,8 +12482,8 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
       <c r="G76" t="s">
         <v>563</v>
       </c>
@@ -12527,8 +12500,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
       <c r="G77" t="s">
         <v>568</v>
       </c>
@@ -12545,8 +12518,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
       <c r="G78" t="s">
         <v>573</v>
       </c>
@@ -12563,8 +12536,8 @@
         <v>577</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="37"/>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
       <c r="G79" t="s">
         <v>578</v>
       </c>
@@ -12581,8 +12554,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
       <c r="G80" t="s">
         <v>583</v>
       </c>
@@ -12599,8 +12572,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
       <c r="G81" t="s">
         <v>588</v>
       </c>
@@ -12617,8 +12590,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
       <c r="G82" t="s">
         <v>593</v>
       </c>
@@ -12635,8 +12608,8 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
       <c r="G83" t="s">
         <v>598</v>
       </c>
@@ -12653,8 +12626,8 @@
         <v>602</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
       <c r="G84" t="s">
         <v>603</v>
       </c>
@@ -12671,8 +12644,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
       <c r="G85" t="s">
         <v>608</v>
       </c>
@@ -12689,8 +12662,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
       <c r="G86" t="s">
         <v>613</v>
       </c>
@@ -12707,8 +12680,8 @@
         <v>617</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
       <c r="G87" t="s">
         <v>618</v>
       </c>
@@ -12725,8 +12698,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
       <c r="G88" t="s">
         <v>623</v>
       </c>
@@ -12743,8 +12716,8 @@
         <v>627</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
       <c r="G89" t="s">
         <v>628</v>
       </c>
@@ -12761,8 +12734,8 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="36"/>
       <c r="G90" t="s">
         <v>633</v>
       </c>
@@ -12779,8 +12752,8 @@
         <v>637</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="36"/>
       <c r="G91" t="s">
         <v>638</v>
       </c>
@@ -12797,8 +12770,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="36"/>
       <c r="H92" t="s">
         <v>643</v>
       </c>
@@ -12812,8 +12785,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
       <c r="H93" t="s">
         <v>647</v>
       </c>
@@ -12827,8 +12800,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="36"/>
       <c r="H94" t="s">
         <v>651</v>
       </c>
@@ -12842,8 +12815,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
       <c r="H95" t="s">
         <v>655</v>
       </c>
@@ -12857,8 +12830,8 @@
         <v>658</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
       <c r="H96" t="s">
         <v>659</v>
       </c>
@@ -12872,8 +12845,8 @@
         <v>662</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
       <c r="H97" t="s">
         <v>663</v>
       </c>
@@ -12887,8 +12860,8 @@
         <v>666</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="36"/>
       <c r="H98" t="s">
         <v>667</v>
       </c>
@@ -12902,8 +12875,8 @@
         <v>670</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="36"/>
       <c r="H99" t="s">
         <v>671</v>
       </c>
@@ -12917,8 +12890,8 @@
         <v>674</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="36"/>
       <c r="H100" t="s">
         <v>675</v>
       </c>
@@ -12932,8 +12905,8 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="36"/>
       <c r="H101" t="s">
         <v>679</v>
       </c>
@@ -12947,8 +12920,8 @@
         <v>682</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="36"/>
       <c r="H102" t="s">
         <v>683</v>
       </c>
@@ -12962,8 +12935,8 @@
         <v>686</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
       <c r="H103" t="s">
         <v>687</v>
       </c>
@@ -12977,8 +12950,8 @@
         <v>690</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="37"/>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="36"/>
       <c r="H104" t="s">
         <v>691</v>
       </c>
@@ -12992,8 +12965,8 @@
         <v>694</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="37"/>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
       <c r="H105" t="s">
         <v>695</v>
       </c>
@@ -13007,8 +12980,8 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="36"/>
       <c r="H106" t="s">
         <v>699</v>
       </c>
@@ -13022,8 +12995,8 @@
         <v>702</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="36"/>
       <c r="H107" t="s">
         <v>703</v>
       </c>
@@ -13037,8 +13010,8 @@
         <v>706</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="36"/>
       <c r="H108" t="s">
         <v>707</v>
       </c>
@@ -13052,8 +13025,8 @@
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
       <c r="H109" t="s">
         <v>711</v>
       </c>
@@ -13067,8 +13040,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
       <c r="H110" t="s">
         <v>715</v>
       </c>
@@ -13082,8 +13055,8 @@
         <v>718</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="36"/>
       <c r="H111" t="s">
         <v>719</v>
       </c>
@@ -13097,8 +13070,8 @@
         <v>722</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="37"/>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="36"/>
       <c r="H112" t="s">
         <v>723</v>
       </c>
@@ -13112,8 +13085,8 @@
         <v>726</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="36"/>
       <c r="H113" t="s">
         <v>727</v>
       </c>
@@ -13127,8 +13100,8 @@
         <v>730</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="36"/>
       <c r="H114" t="s">
         <v>731</v>
       </c>
@@ -13142,8 +13115,8 @@
         <v>734</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="36"/>
       <c r="H115" t="s">
         <v>735</v>
       </c>
@@ -13157,8 +13130,8 @@
         <v>738</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="36"/>
       <c r="H116" t="s">
         <v>739</v>
       </c>
@@ -13172,8 +13145,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="36"/>
       <c r="H117" t="s">
         <v>743</v>
       </c>
@@ -13187,8 +13160,8 @@
         <v>746</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="36"/>
       <c r="H118" t="s">
         <v>747</v>
       </c>
@@ -13202,8 +13175,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="37"/>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="36"/>
       <c r="H119" t="s">
         <v>751</v>
       </c>
@@ -13217,8 +13190,8 @@
         <v>754</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="37"/>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="36"/>
       <c r="H120" t="s">
         <v>755</v>
       </c>
@@ -13232,8 +13205,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="36"/>
       <c r="H121" t="s">
         <v>759</v>
       </c>
@@ -13247,8 +13220,8 @@
         <v>762</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="36"/>
       <c r="H122" t="s">
         <v>763</v>
       </c>
@@ -13262,8 +13235,8 @@
         <v>766</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="37"/>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="36"/>
       <c r="H123" t="s">
         <v>767</v>
       </c>
@@ -13277,8 +13250,8 @@
         <v>770</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="37"/>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="36"/>
       <c r="H124" t="s">
         <v>771</v>
       </c>
@@ -13292,8 +13265,8 @@
         <v>774</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="37"/>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="36"/>
       <c r="H125" t="s">
         <v>775</v>
       </c>
@@ -13307,8 +13280,8 @@
         <v>778</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="37"/>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="36"/>
       <c r="H126" t="s">
         <v>779</v>
       </c>
@@ -13322,8 +13295,8 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="37"/>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="36"/>
       <c r="H127" t="s">
         <v>783</v>
       </c>
@@ -13337,8 +13310,8 @@
         <v>786</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="36"/>
       <c r="H128" t="s">
         <v>787</v>
       </c>
@@ -13352,8 +13325,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="36"/>
       <c r="H129" t="s">
         <v>791</v>
       </c>
@@ -13367,8 +13340,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="36"/>
       <c r="H130" t="s">
         <v>795</v>
       </c>
@@ -13382,8 +13355,8 @@
         <v>798</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="37"/>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="36"/>
       <c r="H131" t="s">
         <v>799</v>
       </c>
@@ -13397,8 +13370,8 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="36"/>
       <c r="H132" t="s">
         <v>803</v>
       </c>
@@ -13412,8 +13385,8 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="37"/>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="36"/>
       <c r="H133" t="s">
         <v>807</v>
       </c>
@@ -13427,8 +13400,8 @@
         <v>810</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="36"/>
       <c r="H134" t="s">
         <v>811</v>
       </c>
@@ -13442,8 +13415,8 @@
         <v>814</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="37"/>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="36"/>
       <c r="H135" t="s">
         <v>815</v>
       </c>
@@ -13457,8 +13430,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="36"/>
       <c r="H136" t="s">
         <v>819</v>
       </c>
@@ -13472,8 +13445,8 @@
         <v>822</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="37"/>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="36"/>
       <c r="H137" t="s">
         <v>823</v>
       </c>
@@ -13487,8 +13460,8 @@
         <v>826</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="36"/>
       <c r="H138" t="s">
         <v>827</v>
       </c>
@@ -13502,8 +13475,8 @@
         <v>830</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="36"/>
       <c r="H139" t="s">
         <v>831</v>
       </c>
@@ -13517,8 +13490,8 @@
         <v>834</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="37"/>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="36"/>
       <c r="H140" t="s">
         <v>835</v>
       </c>
@@ -13532,8 +13505,8 @@
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="36"/>
       <c r="H141" t="s">
         <v>839</v>
       </c>
@@ -13547,8 +13520,8 @@
         <v>842</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="37"/>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="36"/>
       <c r="H142" t="s">
         <v>843</v>
       </c>
@@ -13562,8 +13535,8 @@
         <v>846</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="37"/>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="36"/>
       <c r="H143" t="s">
         <v>847</v>
       </c>
@@ -13577,8 +13550,8 @@
         <v>850</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="37"/>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="36"/>
       <c r="H144" t="s">
         <v>851</v>
       </c>
@@ -13592,8 +13565,8 @@
         <v>854</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="36"/>
       <c r="H145" t="s">
         <v>855</v>
       </c>
@@ -13607,8 +13580,8 @@
         <v>858</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="36"/>
       <c r="H146" t="s">
         <v>859</v>
       </c>
@@ -13622,8 +13595,8 @@
         <v>862</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="37"/>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="36"/>
       <c r="H147" t="s">
         <v>863</v>
       </c>
@@ -13637,8 +13610,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="36"/>
       <c r="H148" t="s">
         <v>867</v>
       </c>
@@ -13652,8 +13625,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="37"/>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="36"/>
       <c r="H149" t="s">
         <v>871</v>
       </c>
@@ -13667,8 +13640,8 @@
         <v>874</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="37"/>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="36"/>
       <c r="H150" t="s">
         <v>875</v>
       </c>
@@ -13682,8 +13655,8 @@
         <v>878</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="36"/>
       <c r="H151" t="s">
         <v>879</v>
       </c>
@@ -13697,8 +13670,8 @@
         <v>882</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="36"/>
       <c r="H152" t="s">
         <v>883</v>
       </c>
@@ -13712,8 +13685,8 @@
         <v>886</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="36"/>
       <c r="H153" t="s">
         <v>887</v>
       </c>
@@ -13727,8 +13700,8 @@
         <v>890</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="37"/>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="36"/>
       <c r="H154" t="s">
         <v>891</v>
       </c>
@@ -13742,8 +13715,8 @@
         <v>894</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="37"/>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="36"/>
       <c r="H155" t="s">
         <v>895</v>
       </c>
@@ -13757,8 +13730,8 @@
         <v>898</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="37"/>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="36"/>
       <c r="H156" t="s">
         <v>899</v>
       </c>
@@ -13772,8 +13745,8 @@
         <v>902</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="36"/>
       <c r="H157" t="s">
         <v>903</v>
       </c>
@@ -13787,8 +13760,8 @@
         <v>906</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="37"/>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="36"/>
       <c r="H158" t="s">
         <v>907</v>
       </c>
@@ -13802,8 +13775,8 @@
         <v>910</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="36"/>
       <c r="H159" t="s">
         <v>911</v>
       </c>
@@ -13817,8 +13790,8 @@
         <v>914</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="36"/>
       <c r="H160" t="s">
         <v>915</v>
       </c>
@@ -13832,8 +13805,8 @@
         <v>918</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="37"/>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="36"/>
       <c r="H161" t="s">
         <v>919</v>
       </c>
@@ -13847,8 +13820,8 @@
         <v>922</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="37"/>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="36"/>
       <c r="H162" t="s">
         <v>923</v>
       </c>
@@ -13862,8 +13835,8 @@
         <v>926</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="36"/>
       <c r="H163" t="s">
         <v>927</v>
       </c>
@@ -13877,8 +13850,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="36"/>
       <c r="H164" t="s">
         <v>931</v>
       </c>
@@ -13892,8 +13865,8 @@
         <v>934</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="37"/>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="36"/>
       <c r="H165" t="s">
         <v>935</v>
       </c>
@@ -13907,8 +13880,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="37"/>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="36"/>
       <c r="H166" t="s">
         <v>939</v>
       </c>
@@ -13922,8 +13895,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="36"/>
       <c r="H167" t="s">
         <v>943</v>
       </c>
@@ -13937,8 +13910,8 @@
         <v>946</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="37"/>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="36"/>
       <c r="H168" t="s">
         <v>947</v>
       </c>
@@ -13952,8 +13925,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="36"/>
       <c r="H169" t="s">
         <v>951</v>
       </c>
@@ -13967,8 +13940,8 @@
         <v>954</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="37"/>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="36"/>
       <c r="H170" t="s">
         <v>955</v>
       </c>
@@ -13982,8 +13955,8 @@
         <v>958</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="37"/>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="36"/>
       <c r="H171" t="s">
         <v>959</v>
       </c>
@@ -13997,8 +13970,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="36"/>
       <c r="H172" t="s">
         <v>963</v>
       </c>
@@ -14012,8 +13985,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="37"/>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="36"/>
       <c r="H173" t="s">
         <v>967</v>
       </c>
@@ -14027,8 +14000,8 @@
         <v>970</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="37"/>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="36"/>
       <c r="H174" t="s">
         <v>971</v>
       </c>
@@ -14042,8 +14015,8 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="37"/>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="36"/>
       <c r="H175" t="s">
         <v>975</v>
       </c>
@@ -14057,8 +14030,8 @@
         <v>978</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="37"/>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="36"/>
       <c r="H176" t="s">
         <v>979</v>
       </c>
@@ -14072,8 +14045,8 @@
         <v>982</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="37"/>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="36"/>
       <c r="H177" t="s">
         <v>983</v>
       </c>
@@ -14087,8 +14060,8 @@
         <v>986</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="37"/>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="36"/>
       <c r="H178" t="s">
         <v>987</v>
       </c>
@@ -14102,8 +14075,8 @@
         <v>990</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="37"/>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="36"/>
       <c r="H179" t="s">
         <v>991</v>
       </c>
@@ -14117,8 +14090,8 @@
         <v>994</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="36"/>
       <c r="H180" t="s">
         <v>995</v>
       </c>
@@ -14132,8 +14105,8 @@
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="36"/>
       <c r="H181" t="s">
         <v>999</v>
       </c>
@@ -14147,8 +14120,8 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="37"/>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="36"/>
       <c r="H182" t="s">
         <v>1003</v>
       </c>
@@ -14162,8 +14135,8 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="37"/>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="36"/>
       <c r="H183" t="s">
         <v>1007</v>
       </c>
@@ -14177,8 +14150,8 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="36"/>
       <c r="H184" t="s">
         <v>1011</v>
       </c>
@@ -14192,8 +14165,8 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="36"/>
       <c r="H185" t="s">
         <v>1015</v>
       </c>
@@ -14207,8 +14180,8 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="36"/>
       <c r="H186" t="s">
         <v>1019</v>
       </c>
@@ -14222,8 +14195,8 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="36"/>
       <c r="H187" t="s">
         <v>1023</v>
       </c>
@@ -14237,8 +14210,8 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="37"/>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="36"/>
       <c r="H188" t="s">
         <v>1027</v>
       </c>
@@ -14252,8 +14225,8 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="37"/>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="36"/>
       <c r="H189" t="s">
         <v>1031</v>
       </c>
@@ -14267,8 +14240,8 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="37"/>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="36"/>
       <c r="H190" t="s">
         <v>1035</v>
       </c>
@@ -14282,8 +14255,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="36"/>
       <c r="H191" t="s">
         <v>1039</v>
       </c>
@@ -14297,8 +14270,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="37"/>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="36"/>
       <c r="H192" t="s">
         <v>1043</v>
       </c>
@@ -14312,8 +14285,8 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A193" s="37"/>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="36"/>
       <c r="H193" t="s">
         <v>1047</v>
       </c>
@@ -14327,8 +14300,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A194" s="37"/>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="36"/>
       <c r="H194" t="s">
         <v>1051</v>
       </c>
@@ -14342,8 +14315,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="36"/>
       <c r="H195" t="s">
         <v>1055</v>
       </c>
@@ -14357,8 +14330,8 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="37"/>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="36"/>
       <c r="H196" t="s">
         <v>1059</v>
       </c>
@@ -14372,8 +14345,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A197" s="37"/>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="36"/>
       <c r="H197" t="s">
         <v>1063</v>
       </c>
@@ -14387,8 +14360,8 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A198" s="37"/>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="36"/>
       <c r="H198" t="s">
         <v>1067</v>
       </c>
@@ -14402,8 +14375,8 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="36"/>
       <c r="H199" t="s">
         <v>1071</v>
       </c>
@@ -14417,8 +14390,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="36"/>
       <c r="H200" t="s">
         <v>1075</v>
       </c>
@@ -14432,8 +14405,8 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="37"/>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="36"/>
       <c r="H201" t="s">
         <v>1079</v>
       </c>
@@ -14447,8 +14420,8 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="36"/>
       <c r="H202" t="s">
         <v>1083</v>
       </c>
@@ -14462,8 +14435,8 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="37"/>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="36"/>
       <c r="H203" t="s">
         <v>1087</v>
       </c>
@@ -14477,8 +14450,8 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A204" s="37"/>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="36"/>
       <c r="H204" t="s">
         <v>1091</v>
       </c>
@@ -14492,8 +14465,8 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A205" s="37"/>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="36"/>
       <c r="H205" t="s">
         <v>1095</v>
       </c>
@@ -14507,8 +14480,8 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A206" s="37"/>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="36"/>
       <c r="H206" t="s">
         <v>1099</v>
       </c>
@@ -14522,8 +14495,8 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A207" s="37"/>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="36"/>
       <c r="H207" t="s">
         <v>1103</v>
       </c>
@@ -14537,8 +14510,8 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A208" s="37"/>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="36"/>
       <c r="H208" t="s">
         <v>1107</v>
       </c>
@@ -14552,8 +14525,8 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A209" s="37"/>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="36"/>
       <c r="H209" t="s">
         <v>1111</v>
       </c>
@@ -14567,8 +14540,8 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A210" s="37"/>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="36"/>
       <c r="H210" t="s">
         <v>1115</v>
       </c>
@@ -14582,8 +14555,8 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A211" s="37"/>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" s="36"/>
       <c r="H211" t="s">
         <v>1119</v>
       </c>
@@ -14597,8 +14570,8 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A212" s="37"/>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="36"/>
       <c r="H212" t="s">
         <v>1123</v>
       </c>
@@ -14612,8 +14585,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A213" s="37"/>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="36"/>
       <c r="H213" t="s">
         <v>1127</v>
       </c>
@@ -14627,8 +14600,8 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A214" s="37"/>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="36"/>
       <c r="H214" t="s">
         <v>1131</v>
       </c>
@@ -14642,8 +14615,8 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A215" s="37"/>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="36"/>
       <c r="H215" t="s">
         <v>1135</v>
       </c>
@@ -14657,8 +14630,8 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A216" s="37"/>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="36"/>
       <c r="H216" t="s">
         <v>1139</v>
       </c>
@@ -14672,8 +14645,8 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A217" s="37"/>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="36"/>
       <c r="H217" t="s">
         <v>1143</v>
       </c>
@@ -14687,8 +14660,8 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A218" s="37"/>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="36"/>
       <c r="H218" t="s">
         <v>1147</v>
       </c>
@@ -14702,8 +14675,8 @@
         <v>1791337</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A219" s="37"/>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="36"/>
       <c r="H219" t="s">
         <v>1150</v>
       </c>
@@ -14717,8 +14690,8 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A220" s="37"/>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="36"/>
       <c r="H220" t="s">
         <v>1154</v>
       </c>
@@ -14732,8 +14705,8 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A221" s="37"/>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="36"/>
       <c r="H221" t="s">
         <v>1158</v>
       </c>
@@ -14747,8 +14720,8 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A222" s="37"/>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="36"/>
       <c r="H222" t="s">
         <v>1162</v>
       </c>
@@ -14762,8 +14735,8 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A223" s="37"/>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="36"/>
       <c r="H223" t="s">
         <v>1166</v>
       </c>
@@ -14777,8 +14750,8 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A224" s="37"/>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="36"/>
       <c r="H224" t="s">
         <v>1170</v>
       </c>
@@ -14792,8 +14765,8 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A225" s="37"/>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="36"/>
       <c r="H225" t="s">
         <v>1174</v>
       </c>
@@ -14807,8 +14780,8 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A226" s="37"/>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="36"/>
       <c r="H226" t="s">
         <v>1178</v>
       </c>
@@ -14822,8 +14795,8 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="37"/>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" s="36"/>
       <c r="H227" t="s">
         <v>1182</v>
       </c>
@@ -14837,8 +14810,8 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="37"/>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="36"/>
       <c r="H228" t="s">
         <v>1186</v>
       </c>
@@ -14852,8 +14825,8 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A229" s="37"/>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="36"/>
       <c r="H229" t="s">
         <v>1190</v>
       </c>
@@ -14867,8 +14840,8 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="37"/>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="36"/>
       <c r="H230" t="s">
         <v>1194</v>
       </c>
@@ -14882,8 +14855,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="37"/>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="36"/>
       <c r="H231" t="s">
         <v>1198</v>
       </c>
@@ -14897,8 +14870,8 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="37"/>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="36"/>
       <c r="H232" t="s">
         <v>1202</v>
       </c>
@@ -14912,8 +14885,8 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A233" s="37"/>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="36"/>
       <c r="H233" t="s">
         <v>1206</v>
       </c>
@@ -14927,8 +14900,8 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A234" s="37"/>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="36"/>
       <c r="H234" t="s">
         <v>1210</v>
       </c>
@@ -14942,8 +14915,8 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A235" s="37"/>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="36"/>
       <c r="H235" t="s">
         <v>1214</v>
       </c>
@@ -14957,8 +14930,8 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A236" s="37"/>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" s="36"/>
       <c r="H236" t="s">
         <v>1218</v>
       </c>
@@ -14972,8 +14945,8 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A237" s="37"/>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" s="36"/>
       <c r="H237" t="s">
         <v>1222</v>
       </c>
@@ -14987,8 +14960,8 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A238" s="37"/>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="36"/>
       <c r="H238" t="s">
         <v>1226</v>
       </c>
@@ -15002,8 +14975,8 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A239" s="37"/>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" s="36"/>
       <c r="H239" t="s">
         <v>1230</v>
       </c>
@@ -15017,8 +14990,8 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A240" s="37"/>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" s="36"/>
       <c r="H240" t="s">
         <v>1234</v>
       </c>
@@ -15032,8 +15005,8 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A241" s="37"/>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" s="36"/>
       <c r="H241" t="s">
         <v>1238</v>
       </c>
@@ -15047,8 +15020,8 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A242" s="37"/>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="36"/>
       <c r="H242" t="s">
         <v>1242</v>
       </c>
@@ -15062,8 +15035,8 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243" s="37"/>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" s="36"/>
       <c r="H243" t="s">
         <v>1246</v>
       </c>
@@ -15077,8 +15050,8 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A244" s="37"/>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" s="36"/>
       <c r="H244" t="s">
         <v>1250</v>
       </c>
@@ -15092,8 +15065,8 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A245" s="37"/>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" s="36"/>
       <c r="H245" t="s">
         <v>1254</v>
       </c>
@@ -15107,8 +15080,8 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A246" s="37"/>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" s="36"/>
       <c r="H246" t="s">
         <v>1258</v>
       </c>
@@ -15122,8 +15095,8 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A247" s="37"/>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" s="36"/>
       <c r="H247" t="s">
         <v>1262</v>
       </c>
@@ -15137,8 +15110,8 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A248" s="37"/>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" s="36"/>
       <c r="H248" t="s">
         <v>1266</v>
       </c>
@@ -15152,8 +15125,8 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A249" s="37"/>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249" s="36"/>
       <c r="H249" t="s">
         <v>1270</v>
       </c>
@@ -15167,8 +15140,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A250" s="37"/>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250" s="36"/>
       <c r="H250" t="s">
         <v>1274</v>
       </c>
@@ -15182,8 +15155,8 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A251" s="37"/>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251" s="36"/>
       <c r="H251" t="s">
         <v>1278</v>
       </c>
@@ -15197,8 +15170,8 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A252" s="37"/>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" s="36"/>
       <c r="H252" t="s">
         <v>1282</v>
       </c>
@@ -15212,8 +15185,8 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A253" s="37"/>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" s="36"/>
       <c r="H253" t="s">
         <v>1286</v>
       </c>
@@ -15227,8 +15200,8 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A254" s="37"/>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="36"/>
       <c r="H254" t="s">
         <v>1290</v>
       </c>
@@ -15242,8 +15215,8 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A255" s="37"/>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255" s="36"/>
       <c r="H255" t="s">
         <v>1294</v>
       </c>
@@ -15257,8 +15230,8 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A256" s="37"/>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" s="36"/>
       <c r="H256" t="s">
         <v>1298</v>
       </c>
@@ -15272,8 +15245,8 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A257" s="37"/>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257" s="36"/>
       <c r="H257" t="s">
         <v>1302</v>
       </c>
@@ -15287,8 +15260,8 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A258" s="37"/>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" s="36"/>
       <c r="H258" t="s">
         <v>1306</v>
       </c>
@@ -15302,8 +15275,8 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A259" s="37"/>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" s="36"/>
       <c r="H259" t="s">
         <v>1310</v>
       </c>
@@ -15317,8 +15290,8 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A260" s="37"/>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" s="36"/>
       <c r="H260" t="s">
         <v>1314</v>
       </c>
@@ -15332,8 +15305,8 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A261" s="37"/>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261" s="36"/>
       <c r="H261" t="s">
         <v>1318</v>
       </c>
@@ -15347,8 +15320,8 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A262" s="37"/>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" s="36"/>
       <c r="H262" t="s">
         <v>1322</v>
       </c>
@@ -15362,8 +15335,8 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A263" s="37"/>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A263" s="36"/>
       <c r="H263" t="s">
         <v>1326</v>
       </c>
@@ -15377,8 +15350,8 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A264" s="37"/>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264" s="36"/>
       <c r="H264" t="s">
         <v>1330</v>
       </c>
@@ -15392,8 +15365,8 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A265" s="37"/>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" s="36"/>
       <c r="H265" t="s">
         <v>1334</v>
       </c>
@@ -15407,8 +15380,8 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A266" s="37"/>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266" s="36"/>
       <c r="H266" t="s">
         <v>1338</v>
       </c>
@@ -15422,8 +15395,8 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A267" s="37"/>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267" s="36"/>
       <c r="H267" t="s">
         <v>1342</v>
       </c>
@@ -15437,8 +15410,8 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A268" s="37"/>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268" s="36"/>
       <c r="H268" t="s">
         <v>1346</v>
       </c>
@@ -15452,8 +15425,8 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A269" s="37"/>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269" s="36"/>
       <c r="H269" t="s">
         <v>1350</v>
       </c>
@@ -15467,8 +15440,8 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A270" s="37"/>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A270" s="36"/>
       <c r="H270" t="s">
         <v>1354</v>
       </c>
@@ -15482,8 +15455,8 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A271" s="37"/>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271" s="36"/>
       <c r="H271" t="s">
         <v>1358</v>
       </c>
@@ -15497,8 +15470,8 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A272" s="37"/>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272" s="36"/>
       <c r="H272" t="s">
         <v>1362</v>
       </c>
@@ -15512,8 +15485,8 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A273" s="37"/>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273" s="36"/>
       <c r="H273" t="s">
         <v>1366</v>
       </c>
@@ -15527,8 +15500,8 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A274" s="37"/>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" s="36"/>
       <c r="H274" t="s">
         <v>1370</v>
       </c>
@@ -15542,8 +15515,8 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A275" s="37"/>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275" s="36"/>
       <c r="H275" t="s">
         <v>1374</v>
       </c>
@@ -15557,8 +15530,8 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A276" s="37"/>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276" s="36"/>
       <c r="H276" t="s">
         <v>1378</v>
       </c>
@@ -15572,8 +15545,8 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A277" s="37"/>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" s="36"/>
       <c r="H277" t="s">
         <v>1382</v>
       </c>
@@ -15587,8 +15560,8 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A278" s="37"/>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" s="36"/>
       <c r="H278" t="s">
         <v>1386</v>
       </c>
@@ -15602,8 +15575,8 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A279" s="37"/>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279" s="36"/>
       <c r="H279" t="s">
         <v>1390</v>
       </c>
@@ -15617,8 +15590,8 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A280" s="37"/>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" s="36"/>
       <c r="H280" t="s">
         <v>1394</v>
       </c>
@@ -15632,8 +15605,8 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A281" s="37"/>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="36"/>
       <c r="H281" t="s">
         <v>1398</v>
       </c>
@@ -15647,8 +15620,8 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A282" s="37"/>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" s="36"/>
       <c r="H282" t="s">
         <v>1402</v>
       </c>
@@ -15662,8 +15635,8 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A283" s="37"/>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283" s="36"/>
       <c r="H283" t="s">
         <v>1406</v>
       </c>
@@ -15677,8 +15650,8 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A284" s="37"/>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A284" s="36"/>
       <c r="H284" t="s">
         <v>1410</v>
       </c>
@@ -15692,8 +15665,8 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A285" s="37"/>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285" s="36"/>
       <c r="H285" t="s">
         <v>1414</v>
       </c>
@@ -15707,8 +15680,8 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A286" s="37"/>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A286" s="36"/>
       <c r="H286" t="s">
         <v>1418</v>
       </c>
@@ -15722,8 +15695,8 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A287" s="37"/>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A287" s="36"/>
       <c r="H287" t="s">
         <v>1422</v>
       </c>
@@ -15737,8 +15710,8 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A288" s="37"/>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A288" s="36"/>
       <c r="H288" t="s">
         <v>1426</v>
       </c>
@@ -15752,8 +15725,8 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A289" s="37"/>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A289" s="36"/>
       <c r="H289" t="s">
         <v>1430</v>
       </c>
@@ -15767,8 +15740,8 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A290" s="37"/>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A290" s="36"/>
       <c r="H290" t="s">
         <v>1434</v>
       </c>
@@ -15782,8 +15755,8 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A291" s="37"/>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291" s="36"/>
       <c r="H291" t="s">
         <v>1438</v>
       </c>
@@ -15797,8 +15770,8 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A292" s="37"/>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A292" s="36"/>
       <c r="H292" t="s">
         <v>1442</v>
       </c>
@@ -15812,8 +15785,8 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A293" s="37"/>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293" s="36"/>
       <c r="H293" t="s">
         <v>1446</v>
       </c>
@@ -15827,8 +15800,8 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A294" s="37"/>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A294" s="36"/>
       <c r="H294" t="s">
         <v>1450</v>
       </c>
@@ -15842,8 +15815,8 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A295" s="37"/>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295" s="36"/>
       <c r="H295" t="s">
         <v>1454</v>
       </c>
@@ -15857,8 +15830,8 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A296" s="37"/>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A296" s="36"/>
       <c r="H296" t="s">
         <v>1458</v>
       </c>
@@ -15872,8 +15845,8 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A297" s="37"/>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A297" s="36"/>
       <c r="H297" t="s">
         <v>1462</v>
       </c>
@@ -15887,8 +15860,8 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A298" s="37"/>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A298" s="36"/>
       <c r="H298" t="s">
         <v>1466</v>
       </c>
@@ -15902,8 +15875,8 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A299" s="37"/>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A299" s="36"/>
       <c r="H299" t="s">
         <v>1470</v>
       </c>
@@ -15917,8 +15890,8 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A300" s="37"/>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A300" s="36"/>
       <c r="H300" t="s">
         <v>1474</v>
       </c>
@@ -15932,8 +15905,8 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A301" s="37"/>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A301" s="36"/>
       <c r="H301" t="s">
         <v>1478</v>
       </c>
@@ -15947,8 +15920,8 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A302" s="37"/>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A302" s="36"/>
       <c r="H302" t="s">
         <v>1482</v>
       </c>
@@ -15962,8 +15935,8 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A303" s="37"/>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A303" s="36"/>
       <c r="H303" t="s">
         <v>1486</v>
       </c>
@@ -15977,8 +15950,8 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A304" s="37"/>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A304" s="36"/>
       <c r="H304" t="s">
         <v>1490</v>
       </c>
@@ -15992,8 +15965,8 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A305" s="37"/>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A305" s="36"/>
       <c r="H305" t="s">
         <v>1494</v>
       </c>
@@ -16007,8 +15980,8 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A306" s="37"/>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A306" s="36"/>
       <c r="H306" t="s">
         <v>1498</v>
       </c>
@@ -16022,8 +15995,8 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A307" s="37"/>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A307" s="36"/>
       <c r="H307" t="s">
         <v>1502</v>
       </c>
@@ -16037,8 +16010,8 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A308" s="37"/>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308" s="36"/>
       <c r="H308" t="s">
         <v>1506</v>
       </c>
@@ -16052,8 +16025,8 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A309" s="37"/>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309" s="36"/>
       <c r="H309" t="s">
         <v>1510</v>
       </c>
@@ -16067,8 +16040,8 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A310" s="37"/>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A310" s="36"/>
       <c r="H310" t="s">
         <v>1514</v>
       </c>
@@ -16082,8 +16055,8 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A311" s="37"/>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A311" s="36"/>
       <c r="H311" t="s">
         <v>1518</v>
       </c>
@@ -16097,8 +16070,8 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A312" s="37"/>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A312" s="36"/>
       <c r="H312" t="s">
         <v>1522</v>
       </c>
@@ -16112,8 +16085,8 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A313" s="37"/>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A313" s="36"/>
       <c r="H313" t="s">
         <v>1526</v>
       </c>
@@ -16127,8 +16100,8 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A314" s="37"/>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A314" s="36"/>
       <c r="H314" t="s">
         <v>1530</v>
       </c>
@@ -16142,8 +16115,8 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A315" s="37"/>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A315" s="36"/>
       <c r="H315" t="s">
         <v>1534</v>
       </c>
@@ -16157,8 +16130,8 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A316" s="37"/>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A316" s="36"/>
       <c r="H316" t="s">
         <v>1538</v>
       </c>
@@ -16172,8 +16145,8 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A317" s="37"/>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A317" s="36"/>
       <c r="H317" t="s">
         <v>1542</v>
       </c>
@@ -16187,8 +16160,8 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A318" s="37"/>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A318" s="36"/>
       <c r="H318" t="s">
         <v>1546</v>
       </c>
@@ -16202,8 +16175,8 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A319" s="37"/>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A319" s="36"/>
       <c r="H319" t="s">
         <v>1550</v>
       </c>
@@ -16217,8 +16190,8 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A320" s="37"/>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A320" s="36"/>
       <c r="H320" t="s">
         <v>1554</v>
       </c>
@@ -16232,8 +16205,8 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A321" s="37"/>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A321" s="36"/>
       <c r="H321" t="s">
         <v>1558</v>
       </c>
@@ -16247,8 +16220,8 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A322" s="37"/>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A322" s="36"/>
       <c r="H322" t="s">
         <v>1562</v>
       </c>
@@ -16262,8 +16235,8 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A323" s="37"/>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A323" s="36"/>
       <c r="H323" t="s">
         <v>1565</v>
       </c>
@@ -16277,8 +16250,8 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A324" s="37"/>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324" s="36"/>
       <c r="H324" t="s">
         <v>1569</v>
       </c>
@@ -16292,8 +16265,8 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A325" s="37"/>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A325" s="36"/>
       <c r="H325" t="s">
         <v>1573</v>
       </c>
@@ -16307,8 +16280,8 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A326" s="37"/>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A326" s="36"/>
       <c r="H326" t="s">
         <v>1577</v>
       </c>
@@ -16322,8 +16295,8 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A327" s="37"/>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A327" s="36"/>
       <c r="H327" t="s">
         <v>1581</v>
       </c>
@@ -16337,8 +16310,8 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A328" s="37"/>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A328" s="36"/>
       <c r="H328" t="s">
         <v>1585</v>
       </c>
@@ -16352,8 +16325,8 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A329" s="37"/>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A329" s="36"/>
       <c r="H329" t="s">
         <v>1589</v>
       </c>
@@ -16367,8 +16340,8 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A330" s="37"/>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A330" s="36"/>
       <c r="H330" t="s">
         <v>1593</v>
       </c>
@@ -16382,8 +16355,8 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A331" s="37"/>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A331" s="36"/>
       <c r="H331" t="s">
         <v>1597</v>
       </c>
@@ -16397,8 +16370,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A332" s="37"/>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A332" s="36"/>
       <c r="H332" t="s">
         <v>1601</v>
       </c>
@@ -16412,8 +16385,8 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A333" s="37"/>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A333" s="36"/>
       <c r="H333" t="s">
         <v>1605</v>
       </c>
@@ -16427,8 +16400,8 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A334" s="37"/>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A334" s="36"/>
       <c r="H334" t="s">
         <v>1609</v>
       </c>
@@ -16442,8 +16415,8 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A335" s="37"/>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A335" s="36"/>
       <c r="H335" t="s">
         <v>1613</v>
       </c>
@@ -16457,8 +16430,8 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A336" s="37"/>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A336" s="36"/>
       <c r="H336" t="s">
         <v>1617</v>
       </c>
@@ -16472,8 +16445,8 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A337" s="37"/>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A337" s="36"/>
       <c r="H337" t="s">
         <v>1621</v>
       </c>
@@ -16487,8 +16460,8 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A338" s="37"/>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A338" s="36"/>
       <c r="H338" t="s">
         <v>1625</v>
       </c>
@@ -16502,8 +16475,8 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A339" s="37"/>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A339" s="36"/>
       <c r="H339" t="s">
         <v>1629</v>
       </c>
@@ -16517,8 +16490,8 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A340" s="37"/>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A340" s="36"/>
       <c r="H340" t="s">
         <v>1633</v>
       </c>
@@ -16532,8 +16505,8 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A341" s="37"/>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A341" s="36"/>
       <c r="H341" t="s">
         <v>1637</v>
       </c>
@@ -16547,8 +16520,8 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A342" s="37"/>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A342" s="36"/>
       <c r="H342" t="s">
         <v>1641</v>
       </c>
@@ -16562,8 +16535,8 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A343" s="37"/>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A343" s="36"/>
       <c r="H343" t="s">
         <v>1645</v>
       </c>
@@ -16577,8 +16550,8 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A344" s="37"/>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A344" s="36"/>
       <c r="H344" t="s">
         <v>1649</v>
       </c>
@@ -16592,8 +16565,8 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A345" s="37"/>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A345" s="36"/>
       <c r="H345" t="s">
         <v>1653</v>
       </c>
@@ -16607,8 +16580,8 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A346" s="37"/>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A346" s="36"/>
       <c r="H346" t="s">
         <v>1657</v>
       </c>
@@ -16622,8 +16595,8 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A347" s="37"/>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A347" s="36"/>
       <c r="H347" t="s">
         <v>1661</v>
       </c>
@@ -16637,8 +16610,8 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A348" s="37"/>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A348" s="36"/>
       <c r="H348" t="s">
         <v>1665</v>
       </c>
@@ -16652,8 +16625,8 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A349" s="37"/>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A349" s="36"/>
       <c r="H349" t="s">
         <v>1669</v>
       </c>
@@ -16667,8 +16640,8 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A350" s="37"/>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A350" s="36"/>
       <c r="H350" t="s">
         <v>1673</v>
       </c>
@@ -16682,8 +16655,8 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A351" s="37"/>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A351" s="36"/>
       <c r="H351" t="s">
         <v>1677</v>
       </c>
@@ -16697,8 +16670,8 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A352" s="37"/>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A352" s="36"/>
       <c r="H352" t="s">
         <v>1681</v>
       </c>
@@ -16712,8 +16685,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A353" s="37"/>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A353" s="36"/>
       <c r="H353" t="s">
         <v>1684</v>
       </c>
@@ -16727,8 +16700,8 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A354" s="37"/>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A354" s="36"/>
       <c r="H354" t="s">
         <v>1688</v>
       </c>
@@ -16742,8 +16715,8 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A355" s="37"/>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A355" s="36"/>
       <c r="H355" t="s">
         <v>1692</v>
       </c>
@@ -16757,8 +16730,8 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A356" s="37"/>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A356" s="36"/>
       <c r="H356" t="s">
         <v>1696</v>
       </c>
@@ -16772,8 +16745,8 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A357" s="37"/>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A357" s="36"/>
       <c r="H357" t="s">
         <v>1700</v>
       </c>
@@ -16787,8 +16760,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A358" s="37"/>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A358" s="36"/>
       <c r="H358" t="s">
         <v>1703</v>
       </c>
@@ -16802,8 +16775,8 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A359" s="37"/>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A359" s="36"/>
       <c r="H359" t="s">
         <v>1707</v>
       </c>
@@ -16817,8 +16790,8 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A360" s="37"/>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A360" s="36"/>
       <c r="H360" t="s">
         <v>1711</v>
       </c>
@@ -16832,8 +16805,8 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A361" s="37"/>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A361" s="36"/>
       <c r="H361" t="s">
         <v>1715</v>
       </c>
@@ -16847,8 +16820,8 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A362" s="37"/>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A362" s="36"/>
       <c r="H362" t="s">
         <v>1719</v>
       </c>
@@ -16862,8 +16835,8 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A363" s="37"/>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A363" s="36"/>
       <c r="H363" t="s">
         <v>1723</v>
       </c>
@@ -16877,8 +16850,8 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A364" s="37"/>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A364" s="36"/>
       <c r="H364" t="s">
         <v>1727</v>
       </c>
@@ -16892,8 +16865,8 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A365" s="37"/>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A365" s="36"/>
       <c r="H365" t="s">
         <v>1731</v>
       </c>
@@ -16907,8 +16880,8 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A366" s="37"/>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A366" s="36"/>
       <c r="H366" t="s">
         <v>1735</v>
       </c>
@@ -16922,8 +16895,8 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A367" s="37"/>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A367" s="36"/>
       <c r="H367" t="s">
         <v>1739</v>
       </c>
@@ -16937,8 +16910,8 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A368" s="37"/>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A368" s="36"/>
       <c r="H368" t="s">
         <v>1743</v>
       </c>
@@ -16952,8 +16925,8 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A369" s="37"/>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A369" s="36"/>
       <c r="H369" t="s">
         <v>1747</v>
       </c>
@@ -16967,8 +16940,8 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A370" s="37"/>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A370" s="36"/>
       <c r="H370" t="s">
         <v>1751</v>
       </c>
@@ -16982,8 +16955,8 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A371" s="37"/>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A371" s="36"/>
       <c r="H371" t="s">
         <v>1755</v>
       </c>
@@ -16997,8 +16970,8 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A372" s="37"/>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A372" s="36"/>
       <c r="H372" t="s">
         <v>1759</v>
       </c>
@@ -17012,8 +16985,8 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A373" s="37"/>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A373" s="36"/>
       <c r="H373" t="s">
         <v>1763</v>
       </c>
@@ -17027,8 +17000,8 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A374" s="37"/>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A374" s="36"/>
       <c r="H374" t="s">
         <v>1767</v>
       </c>
@@ -17042,8 +17015,8 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A375" s="37"/>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A375" s="36"/>
       <c r="H375" t="s">
         <v>1771</v>
       </c>
@@ -17057,8 +17030,8 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A376" s="37"/>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A376" s="36"/>
       <c r="H376" t="s">
         <v>1775</v>
       </c>
@@ -17072,8 +17045,8 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A377" s="37"/>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A377" s="36"/>
       <c r="H377" t="s">
         <v>1779</v>
       </c>
@@ -17087,8 +17060,8 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A378" s="37"/>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A378" s="36"/>
       <c r="H378" t="s">
         <v>1783</v>
       </c>
@@ -17102,8 +17075,8 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A379" s="37"/>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A379" s="36"/>
       <c r="H379" t="s">
         <v>1787</v>
       </c>
@@ -17117,8 +17090,8 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A380" s="37"/>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A380" s="36"/>
       <c r="H380" t="s">
         <v>1791</v>
       </c>
@@ -17132,8 +17105,8 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A381" s="37"/>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A381" s="36"/>
       <c r="H381" t="s">
         <v>1795</v>
       </c>
@@ -17147,8 +17120,8 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A382" s="37"/>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A382" s="36"/>
       <c r="H382" t="s">
         <v>1799</v>
       </c>
@@ -17162,8 +17135,8 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A383" s="37"/>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A383" s="36"/>
       <c r="H383" t="s">
         <v>1803</v>
       </c>
@@ -17177,8 +17150,8 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A384" s="37"/>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A384" s="36"/>
       <c r="H384" t="s">
         <v>1807</v>
       </c>
@@ -17192,8 +17165,8 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A385" s="37"/>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A385" s="36"/>
       <c r="H385" t="s">
         <v>1811</v>
       </c>
@@ -17207,8 +17180,8 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A386" s="37"/>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A386" s="36"/>
       <c r="H386" t="s">
         <v>1815</v>
       </c>
@@ -17222,8 +17195,8 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A387" s="37"/>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A387" s="36"/>
       <c r="H387" t="s">
         <v>1819</v>
       </c>
@@ -17237,8 +17210,8 @@
         <v>2023695</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A388" s="37"/>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A388" s="36"/>
       <c r="H388" t="s">
         <v>1822</v>
       </c>
@@ -17252,8 +17225,8 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A389" s="37"/>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A389" s="36"/>
       <c r="H389" t="s">
         <v>1826</v>
       </c>
@@ -17267,8 +17240,8 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A390" s="37"/>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A390" s="36"/>
       <c r="H390" t="s">
         <v>1830</v>
       </c>
@@ -17282,8 +17255,8 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A391" s="37"/>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A391" s="36"/>
       <c r="H391" t="s">
         <v>1834</v>
       </c>
@@ -17297,8 +17270,8 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A392" s="37"/>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A392" s="36"/>
       <c r="H392" t="s">
         <v>1838</v>
       </c>
@@ -17312,8 +17285,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A393" s="37"/>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A393" s="36"/>
       <c r="H393" t="s">
         <v>1841</v>
       </c>
@@ -17327,8 +17300,8 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A394" s="37"/>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A394" s="36"/>
       <c r="H394" t="s">
         <v>1845</v>
       </c>
@@ -17342,8 +17315,8 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A395" s="37"/>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A395" s="36"/>
       <c r="H395" t="s">
         <v>1849</v>
       </c>
@@ -17357,8 +17330,8 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A396" s="37"/>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A396" s="36"/>
       <c r="H396" t="s">
         <v>1853</v>
       </c>
@@ -17372,8 +17345,8 @@
         <v>96639</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A397" s="37"/>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A397" s="36"/>
       <c r="H397" t="s">
         <v>1856</v>
       </c>
@@ -17387,8 +17360,8 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A398" s="37"/>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A398" s="36"/>
       <c r="H398" t="s">
         <v>1860</v>
       </c>
@@ -17402,8 +17375,8 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A399" s="37"/>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A399" s="36"/>
       <c r="H399" t="s">
         <v>1864</v>
       </c>
@@ -17417,8 +17390,8 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A400" s="37"/>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A400" s="36"/>
       <c r="H400" t="s">
         <v>1868</v>
       </c>
@@ -17432,8 +17405,8 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A401" s="37"/>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A401" s="36"/>
       <c r="H401" t="s">
         <v>1872</v>
       </c>
@@ -17447,8 +17420,8 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A402" s="37"/>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A402" s="36"/>
       <c r="H402" t="s">
         <v>1876</v>
       </c>
@@ -17462,8 +17435,8 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A403" s="37"/>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A403" s="36"/>
       <c r="H403" t="s">
         <v>1880</v>
       </c>
@@ -17477,8 +17450,8 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A404" s="37"/>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A404" s="36"/>
       <c r="H404" t="s">
         <v>1884</v>
       </c>
@@ -17492,8 +17465,8 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A405" s="37"/>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A405" s="36"/>
       <c r="H405" t="s">
         <v>1888</v>
       </c>
@@ -17507,8 +17480,8 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A406" s="37"/>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A406" s="36"/>
       <c r="H406" t="s">
         <v>1892</v>
       </c>
@@ -17522,8 +17495,8 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A407" s="37"/>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A407" s="36"/>
       <c r="H407" t="s">
         <v>1896</v>
       </c>
@@ -17537,8 +17510,8 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A408" s="37"/>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A408" s="36"/>
       <c r="H408" t="s">
         <v>1900</v>
       </c>
@@ -17552,8 +17525,8 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A409" s="37"/>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A409" s="36"/>
       <c r="H409" t="s">
         <v>1904</v>
       </c>
@@ -17567,8 +17540,8 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A410" s="37"/>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A410" s="36"/>
       <c r="H410" t="s">
         <v>1908</v>
       </c>
@@ -17582,8 +17555,8 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A411" s="37"/>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A411" s="36"/>
       <c r="H411" t="s">
         <v>1912</v>
       </c>
@@ -17597,8 +17570,8 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A412" s="37"/>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A412" s="36"/>
       <c r="H412" t="s">
         <v>1916</v>
       </c>
@@ -17612,8 +17585,8 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A413" s="37"/>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A413" s="36"/>
       <c r="H413" t="s">
         <v>1920</v>
       </c>
@@ -17627,8 +17600,8 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A414" s="37"/>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A414" s="36"/>
       <c r="H414" t="s">
         <v>1924</v>
       </c>
@@ -17642,8 +17615,8 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A415" s="37"/>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A415" s="36"/>
       <c r="H415" t="s">
         <v>1928</v>
       </c>
@@ -17657,8 +17630,8 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A416" s="37"/>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A416" s="36"/>
       <c r="H416" t="s">
         <v>1932</v>
       </c>
@@ -17672,8 +17645,8 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A417" s="37"/>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A417" s="36"/>
       <c r="H417" t="s">
         <v>1936</v>
       </c>
@@ -17687,8 +17660,8 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A418" s="37"/>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A418" s="36"/>
       <c r="H418" t="s">
         <v>1940</v>
       </c>
@@ -17702,8 +17675,8 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A419" s="37"/>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A419" s="36"/>
       <c r="H419" t="s">
         <v>1944</v>
       </c>
@@ -17717,8 +17690,8 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A420" s="37"/>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A420" s="36"/>
       <c r="H420" t="s">
         <v>1948</v>
       </c>
@@ -17732,8 +17705,8 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A421" s="37"/>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A421" s="36"/>
       <c r="H421" t="s">
         <v>1952</v>
       </c>
@@ -17747,8 +17720,8 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A422" s="37"/>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A422" s="36"/>
       <c r="H422" t="s">
         <v>1956</v>
       </c>
@@ -17762,8 +17735,8 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A423" s="37"/>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A423" s="36"/>
       <c r="H423" t="s">
         <v>1960</v>
       </c>
@@ -17777,8 +17750,8 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A424" s="37"/>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A424" s="36"/>
       <c r="H424" t="s">
         <v>1964</v>
       </c>
@@ -17792,8 +17765,8 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A425" s="37"/>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A425" s="36"/>
       <c r="H425" t="s">
         <v>1968</v>
       </c>
@@ -17807,8 +17780,8 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A426" s="37"/>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A426" s="36"/>
       <c r="H426" t="s">
         <v>1972</v>
       </c>
@@ -17822,8 +17795,8 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A427" s="37"/>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A427" s="36"/>
       <c r="H427" t="s">
         <v>1976</v>
       </c>
@@ -17837,8 +17810,8 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A428" s="37"/>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A428" s="36"/>
       <c r="H428" t="s">
         <v>1980</v>
       </c>
@@ -17852,8 +17825,8 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A429" s="37"/>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A429" s="36"/>
       <c r="H429" t="s">
         <v>1984</v>
       </c>
@@ -17867,8 +17840,8 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A430" s="37"/>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A430" s="36"/>
       <c r="H430" t="s">
         <v>1988</v>
       </c>
@@ -17882,8 +17855,8 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A431" s="37"/>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A431" s="36"/>
       <c r="H431" t="s">
         <v>1992</v>
       </c>
@@ -17897,8 +17870,8 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A432" s="37"/>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A432" s="36"/>
       <c r="H432" t="s">
         <v>1996</v>
       </c>
@@ -17912,8 +17885,8 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A433" s="37"/>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A433" s="36"/>
       <c r="H433" t="s">
         <v>2000</v>
       </c>
@@ -17927,8 +17900,8 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A434" s="37"/>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A434" s="36"/>
       <c r="H434" t="s">
         <v>2004</v>
       </c>
@@ -17942,8 +17915,8 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A435" s="37"/>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A435" s="36"/>
       <c r="H435" t="s">
         <v>2008</v>
       </c>
@@ -17957,8 +17930,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A436" s="37"/>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A436" s="36"/>
       <c r="H436" t="s">
         <v>2012</v>
       </c>
@@ -17972,8 +17945,8 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A437" s="37"/>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A437" s="36"/>
       <c r="H437" t="s">
         <v>2016</v>
       </c>
@@ -17987,8 +17960,8 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A438" s="37"/>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A438" s="36"/>
       <c r="H438" t="s">
         <v>2020</v>
       </c>
@@ -18002,8 +17975,8 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A439" s="37"/>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A439" s="36"/>
       <c r="H439" t="s">
         <v>2024</v>
       </c>
@@ -18017,8 +17990,8 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A440" s="37"/>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A440" s="36"/>
       <c r="H440" t="s">
         <v>2028</v>
       </c>
@@ -18032,8 +18005,8 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A441" s="37"/>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A441" s="36"/>
       <c r="H441" t="s">
         <v>2032</v>
       </c>
@@ -18047,8 +18020,8 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A442" s="37"/>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A442" s="36"/>
       <c r="H442" t="s">
         <v>2036</v>
       </c>
@@ -18062,8 +18035,8 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A443" s="37"/>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A443" s="36"/>
       <c r="H443" t="s">
         <v>2040</v>
       </c>
@@ -18077,8 +18050,8 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A444" s="37"/>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A444" s="36"/>
       <c r="H444" t="s">
         <v>2044</v>
       </c>
@@ -18092,8 +18065,8 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A445" s="37"/>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A445" s="36"/>
       <c r="H445" t="s">
         <v>2048</v>
       </c>
@@ -18107,8 +18080,8 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A446" s="37"/>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A446" s="36"/>
       <c r="H446" t="s">
         <v>2052</v>
       </c>
@@ -18122,8 +18095,8 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A447" s="37"/>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A447" s="36"/>
       <c r="H447" t="s">
         <v>2056</v>
       </c>
@@ -18137,8 +18110,8 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A448" s="37"/>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A448" s="36"/>
       <c r="H448" t="s">
         <v>2060</v>
       </c>
@@ -18152,8 +18125,8 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A449" s="37"/>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A449" s="36"/>
       <c r="H449" t="s">
         <v>2064</v>
       </c>
@@ -18167,8 +18140,8 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A450" s="37"/>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A450" s="36"/>
       <c r="H450" t="s">
         <v>2068</v>
       </c>
@@ -18182,8 +18155,8 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A451" s="37"/>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A451" s="36"/>
       <c r="H451" t="s">
         <v>2072</v>
       </c>
@@ -18197,8 +18170,8 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A452" s="37"/>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A452" s="36"/>
       <c r="H452" t="s">
         <v>2076</v>
       </c>
@@ -18212,8 +18185,8 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A453" s="37"/>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A453" s="36"/>
       <c r="H453" t="s">
         <v>2080</v>
       </c>
@@ -18227,8 +18200,8 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A454" s="37"/>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A454" s="36"/>
       <c r="H454" t="s">
         <v>2084</v>
       </c>
@@ -18242,8 +18215,8 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A455" s="37"/>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A455" s="36"/>
       <c r="H455" t="s">
         <v>2088</v>
       </c>
@@ -18257,8 +18230,8 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A456" s="37"/>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A456" s="36"/>
       <c r="H456" t="s">
         <v>2092</v>
       </c>
@@ -18272,8 +18245,8 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A457" s="37"/>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A457" s="36"/>
       <c r="H457" t="s">
         <v>2096</v>
       </c>
@@ -18287,8 +18260,8 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A458" s="37"/>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A458" s="36"/>
       <c r="H458" t="s">
         <v>2100</v>
       </c>
@@ -18302,8 +18275,8 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A459" s="37"/>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A459" s="36"/>
       <c r="H459" t="s">
         <v>2104</v>
       </c>
@@ -18317,8 +18290,8 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A460" s="37"/>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A460" s="36"/>
       <c r="H460" t="s">
         <v>2108</v>
       </c>
@@ -18332,8 +18305,8 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A461" s="37"/>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A461" s="36"/>
       <c r="H461" t="s">
         <v>2112</v>
       </c>
@@ -18347,8 +18320,8 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A462" s="37"/>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A462" s="36"/>
       <c r="H462" t="s">
         <v>2116</v>
       </c>
@@ -18362,8 +18335,8 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A463" s="37"/>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A463" s="36"/>
       <c r="H463" t="s">
         <v>2120</v>
       </c>
@@ -18377,8 +18350,8 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A464" s="37"/>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A464" s="36"/>
       <c r="H464" t="s">
         <v>2124</v>
       </c>
@@ -18392,8 +18365,8 @@
         <v>1677687</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A465" s="37"/>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A465" s="36"/>
       <c r="H465" t="s">
         <v>2127</v>
       </c>
@@ -18407,8 +18380,8 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A466" s="37"/>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A466" s="36"/>
       <c r="H466" t="s">
         <v>2131</v>
       </c>
@@ -18422,8 +18395,8 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A467" s="37"/>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A467" s="36"/>
       <c r="H467" t="s">
         <v>2135</v>
       </c>
@@ -18437,8 +18410,8 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A468" s="37"/>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A468" s="36"/>
       <c r="H468" t="s">
         <v>2139</v>
       </c>
@@ -18452,8 +18425,8 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A469" s="37"/>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A469" s="36"/>
       <c r="H469" t="s">
         <v>2143</v>
       </c>
@@ -18467,8 +18440,8 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A470" s="37"/>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A470" s="36"/>
       <c r="H470" t="s">
         <v>2147</v>
       </c>
@@ -18482,8 +18455,8 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A471" s="37"/>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A471" s="36"/>
       <c r="H471" t="s">
         <v>2151</v>
       </c>
@@ -18497,8 +18470,8 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A472" s="37"/>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A472" s="36"/>
       <c r="H472" t="s">
         <v>2155</v>
       </c>
@@ -18512,8 +18485,8 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A473" s="37"/>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A473" s="36"/>
       <c r="H473" t="s">
         <v>2159</v>
       </c>
@@ -18527,8 +18500,8 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A474" s="37"/>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A474" s="36"/>
       <c r="H474" t="s">
         <v>2163</v>
       </c>
@@ -18542,8 +18515,8 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A475" s="37"/>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A475" s="36"/>
       <c r="K475" t="s">
         <v>2167</v>
       </c>
@@ -18554,8 +18527,8 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A476" s="37"/>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A476" s="36"/>
       <c r="K476" t="s">
         <v>2170</v>
       </c>
@@ -18566,8 +18539,8 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A477" s="37"/>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A477" s="36"/>
       <c r="K477" t="s">
         <v>2173</v>
       </c>
@@ -18578,8 +18551,8 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A478" s="37"/>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A478" s="36"/>
       <c r="K478" t="s">
         <v>2176</v>
       </c>
@@ -18590,8 +18563,8 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A479" s="37"/>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A479" s="36"/>
       <c r="K479" t="s">
         <v>2179</v>
       </c>
@@ -18602,8 +18575,8 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A480" s="37"/>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A480" s="36"/>
       <c r="K480" t="s">
         <v>2182</v>
       </c>
@@ -18614,8 +18587,8 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A481" s="37"/>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A481" s="36"/>
       <c r="K481" t="s">
         <v>2185</v>
       </c>
@@ -18626,8 +18599,8 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A482" s="37"/>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A482" s="36"/>
       <c r="K482" t="s">
         <v>2188</v>
       </c>
@@ -18638,8 +18611,8 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A483" s="37"/>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A483" s="36"/>
       <c r="K483" t="s">
         <v>2191</v>
       </c>
@@ -18650,8 +18623,8 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A484" s="37"/>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A484" s="36"/>
       <c r="K484" t="s">
         <v>2194</v>
       </c>
@@ -18662,8 +18635,8 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A485" s="37"/>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A485" s="36"/>
       <c r="K485" t="s">
         <v>2197</v>
       </c>
@@ -18674,8 +18647,8 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A486" s="37"/>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A486" s="36"/>
       <c r="K486" t="s">
         <v>2200</v>
       </c>
@@ -18686,8 +18659,8 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A487" s="37"/>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A487" s="36"/>
       <c r="K487" t="s">
         <v>2203</v>
       </c>
@@ -18698,8 +18671,8 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A488" s="37"/>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A488" s="36"/>
       <c r="K488" t="s">
         <v>2206</v>
       </c>
@@ -18710,8 +18683,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A489" s="37"/>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A489" s="36"/>
       <c r="K489" t="s">
         <v>2208</v>
       </c>
@@ -18722,8 +18695,8 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A490" s="37"/>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A490" s="36"/>
       <c r="K490" t="s">
         <v>2211</v>
       </c>
@@ -18734,8 +18707,8 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A491" s="37"/>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A491" s="36"/>
       <c r="K491" t="s">
         <v>2214</v>
       </c>
@@ -18746,8 +18719,8 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A492" s="37"/>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A492" s="36"/>
       <c r="K492" t="s">
         <v>2217</v>
       </c>
@@ -18758,8 +18731,8 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A493" s="37"/>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A493" s="36"/>
       <c r="K493" t="s">
         <v>2220</v>
       </c>
@@ -18770,8 +18743,8 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A494" s="37"/>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A494" s="36"/>
       <c r="K494" t="s">
         <v>2223</v>
       </c>
@@ -18782,8 +18755,8 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A495" s="37"/>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A495" s="36"/>
       <c r="K495" t="s">
         <v>2226</v>
       </c>
@@ -18794,8 +18767,8 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A496" s="37"/>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A496" s="36"/>
       <c r="K496" t="s">
         <v>2229</v>
       </c>
@@ -18806,8 +18779,8 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A497" s="37"/>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A497" s="36"/>
       <c r="K497" t="s">
         <v>2232</v>
       </c>
@@ -18818,8 +18791,8 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A498" s="37"/>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A498" s="36"/>
       <c r="K498" t="s">
         <v>2235</v>
       </c>
@@ -18830,8 +18803,8 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A499" s="37"/>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A499" s="36"/>
       <c r="K499" t="s">
         <v>2238</v>
       </c>
@@ -18842,8 +18815,8 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A500" s="37"/>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A500" s="36"/>
       <c r="K500" t="s">
         <v>2241</v>
       </c>
@@ -18854,8 +18827,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A501" s="37"/>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A501" s="36"/>
       <c r="K501" t="s">
         <v>2243</v>
       </c>
@@ -18866,8 +18839,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A502" s="37"/>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A502" s="36"/>
       <c r="K502" t="s">
         <v>2245</v>
       </c>
@@ -18878,8 +18851,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A503" s="37"/>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A503" s="36"/>
       <c r="K503" t="s">
         <v>2247</v>
       </c>
@@ -18890,8 +18863,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A504" s="37"/>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A504" s="36"/>
       <c r="K504" t="s">
         <v>2249</v>
       </c>
@@ -18902,8 +18875,8 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A505" s="37"/>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A505" s="36"/>
       <c r="K505" t="s">
         <v>2252</v>
       </c>
@@ -18914,8 +18887,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A506" s="37"/>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A506" s="36"/>
       <c r="K506" t="s">
         <v>2254</v>
       </c>
@@ -18926,8 +18899,8 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A507" s="37"/>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A507" s="36"/>
       <c r="K507" t="s">
         <v>2257</v>
       </c>
@@ -18938,8 +18911,8 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A508" s="37"/>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A508" s="36"/>
       <c r="K508" t="s">
         <v>2260</v>
       </c>
@@ -18950,8 +18923,8 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A509" s="37"/>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A509" s="36"/>
       <c r="K509" t="s">
         <v>2263</v>
       </c>
@@ -18962,8 +18935,8 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A510" s="37"/>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A510" s="36"/>
       <c r="K510" t="s">
         <v>2266</v>
       </c>
@@ -18974,8 +18947,8 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A511" s="37"/>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A511" s="36"/>
       <c r="K511" t="s">
         <v>2269</v>
       </c>
@@ -18986,8 +18959,8 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A512" s="37"/>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A512" s="36"/>
       <c r="K512" t="s">
         <v>2272</v>
       </c>
@@ -18998,8 +18971,8 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A513" s="37"/>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A513" s="36"/>
       <c r="K513" t="s">
         <v>2275</v>
       </c>
@@ -19010,8 +18983,8 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A514" s="37"/>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A514" s="36"/>
       <c r="K514" t="s">
         <v>2278</v>
       </c>
@@ -19022,8 +18995,8 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A515" s="37"/>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A515" s="36"/>
       <c r="K515" t="s">
         <v>2281</v>
       </c>
@@ -19034,8 +19007,8 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A516" s="37"/>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A516" s="36"/>
       <c r="K516" t="s">
         <v>2284</v>
       </c>
@@ -19046,8 +19019,8 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A517" s="37"/>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A517" s="36"/>
       <c r="K517" t="s">
         <v>2287</v>
       </c>
@@ -19058,8 +19031,8 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A518" s="37"/>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A518" s="36"/>
       <c r="K518" t="s">
         <v>2290</v>
       </c>
@@ -19070,8 +19043,8 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A519" s="37"/>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A519" s="36"/>
       <c r="K519" t="s">
         <v>2293</v>
       </c>
@@ -19082,8 +19055,8 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A520" s="37"/>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A520" s="36"/>
       <c r="K520" t="s">
         <v>2296</v>
       </c>
@@ -19094,8 +19067,8 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A521" s="37"/>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A521" s="36"/>
       <c r="K521" t="s">
         <v>2299</v>
       </c>
@@ -19106,8 +19079,8 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A522" s="37"/>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A522" s="36"/>
       <c r="K522" t="s">
         <v>2302</v>
       </c>
@@ -19118,8 +19091,8 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A523" s="37"/>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A523" s="36"/>
       <c r="K523" t="s">
         <v>2305</v>
       </c>
@@ -19130,8 +19103,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A524" s="37"/>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A524" s="36"/>
       <c r="K524" t="s">
         <v>2307</v>
       </c>
@@ -19142,8 +19115,8 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A525" s="37"/>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A525" s="36"/>
       <c r="K525" t="s">
         <v>2310</v>
       </c>
@@ -19154,8 +19127,8 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A526" s="37"/>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A526" s="36"/>
       <c r="K526" t="s">
         <v>2313</v>
       </c>
@@ -19166,8 +19139,8 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A527" s="37"/>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A527" s="36"/>
       <c r="K527" t="s">
         <v>2316</v>
       </c>
@@ -19178,8 +19151,8 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A528" s="37"/>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A528" s="36"/>
       <c r="K528" t="s">
         <v>2319</v>
       </c>
@@ -19190,8 +19163,8 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A529" s="37"/>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A529" s="36"/>
       <c r="K529" t="s">
         <v>2322</v>
       </c>
@@ -19202,8 +19175,8 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A530" s="37"/>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A530" s="36"/>
       <c r="K530" t="s">
         <v>2325</v>
       </c>
@@ -19214,8 +19187,8 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A531" s="37"/>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A531" s="36"/>
       <c r="K531" t="s">
         <v>2328</v>
       </c>
@@ -19226,8 +19199,8 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A532" s="37"/>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A532" s="36"/>
       <c r="K532" t="s">
         <v>2331</v>
       </c>
@@ -19238,8 +19211,8 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A533" s="37"/>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A533" s="36"/>
       <c r="K533" t="s">
         <v>2334</v>
       </c>
@@ -19250,8 +19223,8 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A534" s="37"/>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A534" s="36"/>
       <c r="K534" t="s">
         <v>2337</v>
       </c>
@@ -19262,8 +19235,8 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A535" s="37"/>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A535" s="36"/>
       <c r="K535" t="s">
         <v>2340</v>
       </c>
@@ -19274,8 +19247,8 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A536" s="37"/>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A536" s="36"/>
       <c r="K536" t="s">
         <v>2343</v>
       </c>
@@ -19286,8 +19259,8 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A537" s="37"/>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A537" s="36"/>
       <c r="K537" t="s">
         <v>2346</v>
       </c>
@@ -19298,8 +19271,8 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A538" s="37"/>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A538" s="36"/>
       <c r="K538" t="s">
         <v>2349</v>
       </c>
@@ -19310,8 +19283,8 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A539" s="37"/>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A539" s="36"/>
       <c r="K539" t="s">
         <v>2352</v>
       </c>
@@ -19322,8 +19295,8 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A540" s="37"/>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A540" s="36"/>
       <c r="K540" t="s">
         <v>2355</v>
       </c>
@@ -19334,8 +19307,8 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A541" s="37"/>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A541" s="36"/>
       <c r="K541" t="s">
         <v>2358</v>
       </c>
@@ -19346,8 +19319,8 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A542" s="37"/>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A542" s="36"/>
       <c r="K542" t="s">
         <v>2361</v>
       </c>
@@ -19358,8 +19331,8 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A543" s="37"/>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A543" s="36"/>
       <c r="K543" t="s">
         <v>2364</v>
       </c>
@@ -19370,8 +19343,8 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A544" s="37"/>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A544" s="36"/>
       <c r="K544" t="s">
         <v>2367</v>
       </c>
@@ -19382,8 +19355,8 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A545" s="37"/>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A545" s="36"/>
       <c r="K545" t="s">
         <v>2370</v>
       </c>
@@ -19394,8 +19367,8 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A546" s="37"/>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A546" s="36"/>
       <c r="K546" t="s">
         <v>2373</v>
       </c>
@@ -19406,8 +19379,8 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A547" s="37"/>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A547" s="36"/>
       <c r="K547" t="s">
         <v>2376</v>
       </c>
@@ -19418,8 +19391,8 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A548" s="37"/>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A548" s="36"/>
       <c r="K548" t="s">
         <v>2379</v>
       </c>
@@ -19430,8 +19403,8 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A549" s="37"/>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A549" s="36"/>
       <c r="K549" t="s">
         <v>2382</v>
       </c>
@@ -19442,8 +19415,8 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A550" s="37"/>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A550" s="36"/>
       <c r="K550" t="s">
         <v>2385</v>
       </c>
@@ -19454,8 +19427,8 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A551" s="37"/>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A551" s="36"/>
       <c r="K551" t="s">
         <v>2388</v>
       </c>
@@ -19466,8 +19439,8 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A552" s="37"/>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A552" s="36"/>
       <c r="K552" t="s">
         <v>2391</v>
       </c>
@@ -19478,8 +19451,8 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A553" s="37"/>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A553" s="36"/>
       <c r="K553" t="s">
         <v>2394</v>
       </c>
@@ -19490,8 +19463,8 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A554" s="37"/>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A554" s="36"/>
       <c r="K554" t="s">
         <v>2397</v>
       </c>
@@ -19502,8 +19475,8 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A555" s="37"/>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A555" s="36"/>
       <c r="K555" t="s">
         <v>2400</v>
       </c>
@@ -19514,8 +19487,8 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A556" s="37"/>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A556" s="36"/>
       <c r="K556" t="s">
         <v>2403</v>
       </c>
@@ -19526,8 +19499,8 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A557" s="37"/>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A557" s="36"/>
       <c r="K557" t="s">
         <v>2406</v>
       </c>
@@ -19538,8 +19511,8 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A558" s="37"/>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A558" s="36"/>
       <c r="K558" t="s">
         <v>2409</v>
       </c>
@@ -19550,8 +19523,8 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A559" s="37"/>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A559" s="36"/>
       <c r="K559" t="s">
         <v>2412</v>
       </c>
@@ -19562,8 +19535,8 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A560" s="37"/>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A560" s="36"/>
       <c r="K560" t="s">
         <v>2415</v>
       </c>
@@ -19574,9 +19547,9 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A561" s="37"/>
-      <c r="E561" s="39"/>
+    <row r="561" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="36"/>
+      <c r="E561" s="38"/>
       <c r="K561" t="s">
         <v>2418</v>
       </c>
@@ -19587,9 +19560,9 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="562" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="37"/>
-      <c r="D562" s="39"/>
+    <row r="562" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="36"/>
+      <c r="D562" s="38"/>
       <c r="K562" t="s">
         <v>2421</v>
       </c>
@@ -19600,8 +19573,8 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A563" s="37"/>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A563" s="36"/>
       <c r="K563" t="s">
         <v>2424</v>
       </c>
@@ -19612,8 +19585,8 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A564" s="37"/>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A564" s="36"/>
       <c r="K564" t="s">
         <v>2427</v>
       </c>
@@ -19624,8 +19597,8 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A565" s="37"/>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A565" s="36"/>
       <c r="K565" t="s">
         <v>2430</v>
       </c>
@@ -19636,8 +19609,8 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A566" s="37"/>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A566" s="36"/>
       <c r="K566" t="s">
         <v>2433</v>
       </c>
@@ -19648,8 +19621,8 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A567" s="37"/>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A567" s="36"/>
       <c r="K567" t="s">
         <v>2436</v>
       </c>
@@ -19660,8 +19633,8 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A568" s="37"/>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A568" s="36"/>
       <c r="K568" t="s">
         <v>2439</v>
       </c>
@@ -19672,8 +19645,8 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A569" s="37"/>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A569" s="36"/>
       <c r="K569" t="s">
         <v>2442</v>
       </c>
@@ -19684,8 +19657,8 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A570" s="37"/>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A570" s="36"/>
       <c r="K570" t="s">
         <v>2445</v>
       </c>
@@ -19696,8 +19669,8 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A571" s="37"/>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A571" s="36"/>
       <c r="K571" t="s">
         <v>2448</v>
       </c>
@@ -19708,8 +19681,8 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A572" s="37"/>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A572" s="36"/>
       <c r="K572" t="s">
         <v>2451</v>
       </c>
@@ -19720,8 +19693,8 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A573" s="37"/>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A573" s="36"/>
       <c r="K573" t="s">
         <v>2454</v>
       </c>
@@ -19732,8 +19705,8 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A574" s="37"/>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A574" s="36"/>
       <c r="K574" t="s">
         <v>2457</v>
       </c>
@@ -19744,8 +19717,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A575" s="37"/>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A575" s="36"/>
       <c r="K575" t="s">
         <v>2459</v>
       </c>
@@ -19756,8 +19729,8 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A576" s="37"/>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A576" s="36"/>
       <c r="K576" t="s">
         <v>2462</v>
       </c>
@@ -19768,8 +19741,8 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A577" s="37"/>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A577" s="36"/>
       <c r="K577" t="s">
         <v>2465</v>
       </c>
@@ -19780,8 +19753,8 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A578" s="37"/>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A578" s="36"/>
       <c r="K578" t="s">
         <v>2468</v>
       </c>
@@ -19792,8 +19765,8 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A579" s="37"/>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A579" s="36"/>
       <c r="K579" t="s">
         <v>2471</v>
       </c>
@@ -19804,8 +19777,8 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A580" s="37"/>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A580" s="36"/>
       <c r="K580" t="s">
         <v>2474</v>
       </c>
@@ -19816,8 +19789,8 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A581" s="37"/>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A581" s="36"/>
       <c r="K581" t="s">
         <v>2477</v>
       </c>
@@ -19828,8 +19801,8 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A582" s="37"/>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A582" s="36"/>
       <c r="K582" t="s">
         <v>2480</v>
       </c>
@@ -19840,8 +19813,8 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A583" s="37"/>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A583" s="36"/>
       <c r="K583" t="s">
         <v>2483</v>
       </c>
@@ -19852,9 +19825,9 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="584" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A584" s="37"/>
-      <c r="B584" s="39"/>
+    <row r="584" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="36"/>
+      <c r="B584" s="38"/>
       <c r="K584" t="s">
         <v>2486</v>
       </c>
@@ -19865,8 +19838,8 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A585" s="37"/>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A585" s="36"/>
       <c r="K585" t="s">
         <v>2489</v>
       </c>
@@ -19877,8 +19850,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A586" s="37"/>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A586" s="36"/>
       <c r="K586" t="s">
         <v>2491</v>
       </c>
@@ -19889,25 +19862,25 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="587" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A587" s="40"/>
-      <c r="C587" s="39"/>
-      <c r="F587" s="39"/>
-      <c r="G587" s="39"/>
-      <c r="H587" s="39"/>
-      <c r="I587" s="39"/>
-      <c r="J587" s="39"/>
-      <c r="K587" s="39" t="s">
+    <row r="587" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="39"/>
+      <c r="C587" s="38"/>
+      <c r="F587" s="38"/>
+      <c r="G587" s="38"/>
+      <c r="H587" s="38"/>
+      <c r="I587" s="38"/>
+      <c r="J587" s="38"/>
+      <c r="K587" s="38" t="s">
         <v>2494</v>
       </c>
-      <c r="L587" s="39"/>
-      <c r="M587" s="39" t="s">
+      <c r="L587" s="38"/>
+      <c r="M587" s="38" t="s">
         <v>2495</v>
       </c>
-      <c r="N587" s="39" t="s">
+      <c r="N587" s="38" t="s">
         <v>2496</v>
       </c>
-      <c r="O587" s="39"/>
+      <c r="O587" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
